--- a/db/AiCity-53-A7House.xlsx
+++ b/db/AiCity-53-A7House.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265917E8-7BC0-4844-A8BE-50497A63C5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD292B7-611B-ED47-A653-3CB4C0A3CBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="10580" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2720" yWindow="10140" windowWidth="50160" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
   <si>
     <t>樂捷市</t>
   </si>
@@ -879,6 +879,42 @@
   </si>
   <si>
     <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君邑丘比特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-邱比特.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121781&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.8~32萬元/坪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文吉路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桃園市龜山區文桃路 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年上半年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>君悅建設</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -950,6 +986,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1253,13 +1291,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1920,20 +1958,20 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>174</v>
+      <c r="A18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
+        <v>203</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="F18" t="s">
         <v>2</v>
@@ -1944,110 +1982,110 @@
       <c r="H18" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18" t="s">
-        <v>121</v>
+      <c r="I18" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>175</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>157</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>193</v>
+        <v>121</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>157</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>194</v>
+        <v>122</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
         <v>2</v>
@@ -2059,33 +2097,33 @@
         <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
+      </c>
+      <c r="K21" t="s">
+        <v>115</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s">
         <v>2</v>
@@ -2097,33 +2135,33 @@
         <v>157</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s">
-        <v>115</v>
+        <v>51</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s">
         <v>2</v>
@@ -2135,36 +2173,36 @@
         <v>157</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>197</v>
+        <v>115</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -2173,15 +2211,53 @@
         <v>157</v>
       </c>
       <c r="I24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
         <v>83</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J25" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2192,24 +2268,25 @@
     <hyperlink ref="D8" r:id="rId2" xr:uid="{229354DA-30CD-CD45-ADD5-A1E156A2463A}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{20E0C285-828E-DA47-B9FF-190AFAAA3BFD}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{7C90841E-2F56-E34F-BFFB-FEAF6ACE2239}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{BB68A115-0557-E94A-9426-DA86376D75C6}"/>
+    <hyperlink ref="D23" r:id="rId5" xr:uid="{BB68A115-0557-E94A-9426-DA86376D75C6}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{F906920D-51DE-6747-90BD-663F878A345C}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{47B7478D-9505-7B43-A526-95A6E60FEDD4}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{99F1EC99-7433-B04D-AB8F-CEB5A4C2431B}"/>
     <hyperlink ref="D9" r:id="rId9" xr:uid="{26C5FA85-6CC1-D742-87D8-105E97D4AB66}"/>
     <hyperlink ref="D14" r:id="rId10" xr:uid="{29EEAE9A-30E2-D545-8EB6-79A74C3C8600}"/>
     <hyperlink ref="D12" r:id="rId11" xr:uid="{B542868F-F5E2-4A49-AB4D-93AAC9536C4C}"/>
-    <hyperlink ref="D23" r:id="rId12" xr:uid="{6A5E6DB7-2E26-D147-A359-0209101EDE73}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{B78D0DB8-7CA0-3248-8098-64144886F46C}"/>
+    <hyperlink ref="D24" r:id="rId12" xr:uid="{6A5E6DB7-2E26-D147-A359-0209101EDE73}"/>
+    <hyperlink ref="D20" r:id="rId13" xr:uid="{B78D0DB8-7CA0-3248-8098-64144886F46C}"/>
     <hyperlink ref="D16" r:id="rId14" xr:uid="{71D8426E-AA74-5641-9535-2268F85959D4}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{7AC8E3BF-D5F4-F24B-86F8-E4C00EAB6764}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{7AC8E3BF-D5F4-F24B-86F8-E4C00EAB6764}"/>
     <hyperlink ref="D2" r:id="rId16" xr:uid="{9B34D794-BBE1-514D-BB46-4DE95C383F1D}"/>
-    <hyperlink ref="D24" r:id="rId17" xr:uid="{84E8CC03-8221-5945-8A43-CCE9F60824CA}"/>
+    <hyperlink ref="D25" r:id="rId17" xr:uid="{84E8CC03-8221-5945-8A43-CCE9F60824CA}"/>
     <hyperlink ref="D13" r:id="rId18" xr:uid="{AF0FC5E4-1D2A-6542-AB33-3AAF9780184A}"/>
     <hyperlink ref="D5" r:id="rId19" xr:uid="{EBF9FEB1-406C-CE45-8994-355909EE0110}"/>
     <hyperlink ref="D6" r:id="rId20" xr:uid="{A2E0A8C1-CA69-494C-9194-43E36E411E27}"/>
-    <hyperlink ref="D21" r:id="rId21" xr:uid="{A0E6965E-0931-7146-B412-79B24AD9C454}"/>
-    <hyperlink ref="D20" r:id="rId22" xr:uid="{87CEAD36-299C-3B4D-B23F-AB3602EB2D3E}"/>
+    <hyperlink ref="D22" r:id="rId21" xr:uid="{A0E6965E-0931-7146-B412-79B24AD9C454}"/>
+    <hyperlink ref="D21" r:id="rId22" xr:uid="{87CEAD36-299C-3B4D-B23F-AB3602EB2D3E}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{5E9E622E-BCE2-6D48-9D80-5263A6061894}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-53-A7House.xlsx
+++ b/db/AiCity-53-A7House.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD292B7-611B-ED47-A653-3CB4C0A3CBD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B665B5-4CF1-C24E-BB51-A9975B7F1C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="10140" windowWidth="50160" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="16420" windowWidth="50040" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="227">
   <si>
     <t>樂捷市</t>
   </si>
@@ -915,6 +915,76 @@
   </si>
   <si>
     <t>君悅建設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>樂田田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=121200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允將大作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35~38 萬/坪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://newhouse.591.com.tw/home/housing/detail?hid=124450&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2028年第二季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區文化一路、樂善三路口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桃園市龜山區文化一路568號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允將建設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25~26 萬/坪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年第三季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市龜山區長慶二街與長慶三街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">桃園市龜山區文化一路旁 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳晟建設</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-樂甜甜.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-939-允將大作.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1291,13 +1361,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>157</v>
@@ -2259,6 +2329,82 @@
       </c>
       <c r="L25" s="5" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2287,6 +2433,8 @@
     <hyperlink ref="D22" r:id="rId21" xr:uid="{A0E6965E-0931-7146-B412-79B24AD9C454}"/>
     <hyperlink ref="D21" r:id="rId22" xr:uid="{87CEAD36-299C-3B4D-B23F-AB3602EB2D3E}"/>
     <hyperlink ref="D18" r:id="rId23" xr:uid="{5E9E622E-BCE2-6D48-9D80-5263A6061894}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{FFA8C544-0044-EA42-B1B2-391E6C7209BD}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{E6BDACD3-48FA-3048-86DF-C5B00A5D6599}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
